--- a/epeii_2025/repaso2/repaso2.xlsx
+++ b/epeii_2025/repaso2/repaso2.xlsx
@@ -8,14 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gee_unsch\econometria\2025\repaso2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6042AD-AB12-414D-AD27-305BDAC2D0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21761FEE-94C7-4A43-AE4A-670FE025AA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="897" xr2:uid="{C5952872-CB64-4884-9D7F-DFF31B3E874F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="897" activeTab="4" xr2:uid="{C5952872-CB64-4884-9D7F-DFF31B3E874F}"/>
   </bookViews>
   <sheets>
     <sheet name="data1" sheetId="1" r:id="rId1"/>
     <sheet name="data2" sheetId="4" r:id="rId2"/>
     <sheet name="data3" sheetId="5" r:id="rId3"/>
+    <sheet name="1" sheetId="6" r:id="rId4"/>
+    <sheet name="2" sheetId="7" r:id="rId5"/>
+    <sheet name="3" sheetId="8" r:id="rId6"/>
+    <sheet name="4" sheetId="9" r:id="rId7"/>
+    <sheet name="5" sheetId="10" r:id="rId8"/>
+    <sheet name="6" sheetId="11" r:id="rId9"/>
+    <sheet name="7" sheetId="12" r:id="rId10"/>
+    <sheet name="8" sheetId="13" r:id="rId11"/>
+    <sheet name="9" sheetId="14" r:id="rId12"/>
+    <sheet name="10" sheetId="15" r:id="rId13"/>
+    <sheet name="11" sheetId="16" r:id="rId14"/>
+    <sheet name="12" sheetId="17" r:id="rId15"/>
+    <sheet name="13" sheetId="18" r:id="rId16"/>
+    <sheet name="14" sheetId="19" r:id="rId17"/>
+    <sheet name="15" sheetId="20" r:id="rId18"/>
+    <sheet name="16" sheetId="21" r:id="rId19"/>
+    <sheet name="17" sheetId="22" r:id="rId20"/>
+    <sheet name="18" sheetId="23" r:id="rId21"/>
+    <sheet name="19" sheetId="24" r:id="rId22"/>
+    <sheet name="20" sheetId="25" r:id="rId23"/>
+    <sheet name="21" sheetId="26" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="62">
   <si>
     <t>Observación</t>
   </si>
@@ -210,6 +231,9 @@
   </si>
   <si>
     <t>egres</t>
+  </si>
+  <si>
+    <t>d3</t>
   </si>
 </sst>
 </file>
@@ -727,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{434F2E59-5A26-49A3-9949-8C15BB226FF9}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1842,6 +1866,132 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3DC434B-B326-487D-BD8C-0F2B6B676BFD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC8D085-D5D6-4933-8736-16B8FC3FCACB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A39008-991A-48BF-85F7-51CBE4B0E602}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7230A05F-C5D3-4BC1-A835-02ECB5E7C806}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8F6763-9AE5-4FC2-99DF-FE76F59B8004}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55BB3741-5875-4703-AA5C-D8CAA2F3F6BA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB5C2AA-78C2-41B9-AC54-6A690E283F89}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{237EAFFE-F9B3-4CB6-A1F4-48DF7B0EFFE3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADD6414-ACF0-476C-8B1D-B81D616E2F3E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E504104-B704-4816-A3C0-16FACEFF4074}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3823,12 +3973,74 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64DCFA91-6DDF-4EC1-BC64-41770DF8CAEB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953C09CF-C146-4AEA-AACB-A00419535CC2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FF3F87-1315-4745-AD3E-A2B38B837E36}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F860828-C3E7-4CBA-A688-A9E6BB869914}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E1EA18-EFF2-4EA1-9132-4BCF996FBB08}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035D8C8F-A17C-4FD0-B9F5-9D17B36AD972}">
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4778,4 +4990,972 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E01EF64-F7E8-47D7-8215-9204867DFF38}">
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>450</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>550</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>580</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>700</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>750</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>800</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>1200</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1300</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>2200</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2300</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2590</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>2600</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>2670</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>2900</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>3000</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>3010</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>4500</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>4800</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>5000</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>5300</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>6000</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>6890</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>7500</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>7567</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>7689</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>7893</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>900</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>950</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>1150</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>1150</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>1200</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>1300</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>1709</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>1770</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>1800</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>1980</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>2650</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>3000</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>3100</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>3245</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>3456</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>4768</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>4800</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>5000</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>8000</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>8900</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>9356</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>9456</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>9700</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>9876</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>10000</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A021B50D-0484-4B86-838C-0B4F2B943E68}">
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>450</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>550</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>580</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>700</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>750</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>800</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>1200</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1300</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>2200</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2300</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2590</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>2600</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>2670</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>2900</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>3000</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>3010</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>4500</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>4800</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>5000</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>5300</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>6000</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>6890</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>7500</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>7567</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>7689</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>7893</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>900</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>950</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>1150</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>1150</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>1200</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>1300</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>1709</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>1770</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>1800</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>1980</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>2650</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>3000</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>3100</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>3245</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>3456</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>4768</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>4800</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>5000</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>8000</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>8900</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>9356</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>9456</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>9700</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>9876</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>10000</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B70DB3-CE7F-4CF1-8285-4A8FE64D6C3E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182536B0-341F-4CEB-8CCC-FC3D32A80411}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293C7B6E-AE44-43A9-88BA-2F5943F58050}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7728C50-F447-4191-8746-E10171744500}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>